--- a/Data/FX_Spot_Rates.xlsx
+++ b/Data/FX_Spot_Rates.xlsx
@@ -18,6 +18,7 @@
     <definedName name="SpreadsheetBuilder_1" hidden="1">Sheet1!$A$1:$I$7</definedName>
     <definedName name="SpreadsheetBuilder_2" hidden="1">Sheet1!$A$1:$H$7</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">Sheet1!$A$1:$I$7</definedName>
+    <definedName name="TRNR_183d342ed17e4d4aaf4f9159f4ea168b_239_1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Start Date</t>
   </si>
@@ -65,9 +66,6 @@
   </si>
   <si>
     <t>PX_MID</t>
-  </si>
-  <si>
-    <t>#N/A N/A</t>
   </si>
 </sst>
 </file>
@@ -162,22 +160,6 @@
         <stp>Dts=H</stp>
         <stp>cols=1;rows=238</stp>
         <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>USDINR Curncy</stp>
-        <stp>PX_MID</stp>
-        <stp>01.01.2000</stp>
-        <stp/>
-        <stp>[Book16]Sheet1!R7C6</stp>
-        <stp>Dir=V</stp>
-        <stp>Per=M</stp>
-        <stp>Days=A</stp>
-        <stp>Dts=H</stp>
-        <stp>cols=1;rows=238</stp>
-        <tr r="F7" s="1"/>
       </tp>
       <tp>
         <v>1.6576</v>
@@ -595,7 +577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M243" sqref="M243"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -725,9 +709,8 @@
         <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=238")</f>
         <v>1.0301800000000001</v>
       </c>
-      <c r="F7" t="str">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=238")</f>
-        <v>#N/A N/A</v>
+      <c r="F7">
+        <v>43.601300000000002</v>
       </c>
       <c r="G7">
         <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=238")</f>
@@ -758,8 +741,8 @@
       <c r="E8">
         <v>1.0371300000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
+      <c r="F8">
+        <v>43.58</v>
       </c>
       <c r="G8">
         <v>0.63322999999999996</v>
@@ -787,8 +770,8 @@
       <c r="E9">
         <v>1.04657</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
+      <c r="F9">
+        <v>43.612000000000002</v>
       </c>
       <c r="G9">
         <v>0.62849999999999995</v>
@@ -816,8 +799,8 @@
       <c r="E10">
         <v>1.0966100000000001</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
+      <c r="F10">
+        <v>43.645000000000003</v>
       </c>
       <c r="G10">
         <v>0.64441000000000004</v>
@@ -845,8 +828,8 @@
       <c r="E11">
         <v>1.0661</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
+      <c r="F11">
+        <v>44.567500000000003</v>
       </c>
       <c r="G11">
         <v>0.66607000000000005</v>
@@ -874,8 +857,8 @@
       <c r="E12">
         <v>1.0498700000000001</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
+      <c r="F12">
+        <v>44.672499999999999</v>
       </c>
       <c r="G12">
         <v>0.65939000000000003</v>
@@ -903,8 +886,8 @@
       <c r="E13">
         <v>1.07921</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
+      <c r="F13">
+        <v>45.14</v>
       </c>
       <c r="G13">
         <v>0.66681999999999997</v>
@@ -932,8 +915,8 @@
       <c r="E14">
         <v>1.1263799999999999</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
+      <c r="F14">
+        <v>45.75</v>
       </c>
       <c r="G14">
         <v>0.69094</v>
@@ -961,8 +944,8 @@
       <c r="E15">
         <v>1.13289</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
+      <c r="F15">
+        <v>46.037500000000001</v>
       </c>
       <c r="G15">
         <v>0.67654000000000003</v>
@@ -990,8 +973,8 @@
       <c r="E16">
         <v>1.1779999999999999</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
+      <c r="F16">
+        <v>46.755000000000003</v>
       </c>
       <c r="G16">
         <v>0.69096999999999997</v>
@@ -1019,8 +1002,8 @@
       <c r="E17">
         <v>1.14561</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
+      <c r="F17">
+        <v>46.86</v>
       </c>
       <c r="G17">
         <v>0.70215000000000005</v>
@@ -1048,8 +1031,8 @@
       <c r="E18">
         <v>1.0607800000000001</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
+      <c r="F18">
+        <v>46.68</v>
       </c>
       <c r="G18">
         <v>0.66979</v>
@@ -1077,8 +1060,8 @@
       <c r="E19">
         <v>1.06769</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
+      <c r="F19">
+        <v>46.4</v>
       </c>
       <c r="G19">
         <v>0.68278000000000005</v>
@@ -1106,8 +1089,8 @@
       <c r="E20">
         <v>1.0827199999999999</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
+      <c r="F20">
+        <v>46.545000000000002</v>
       </c>
       <c r="G20">
         <v>0.69184999999999997</v>
@@ -1135,8 +1118,8 @@
       <c r="E21">
         <v>1.1406399999999999</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
+      <c r="F21">
+        <v>46.64</v>
       </c>
       <c r="G21">
         <v>0.70616000000000001</v>
@@ -1164,8 +1147,8 @@
       <c r="E22">
         <v>1.12473</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
+      <c r="F22">
+        <v>46.83</v>
       </c>
       <c r="G22">
         <v>0.69823000000000002</v>
@@ -1193,8 +1176,8 @@
       <c r="E23">
         <v>1.1830099999999999</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
+      <c r="F23">
+        <v>47</v>
       </c>
       <c r="G23">
         <v>0.70472000000000001</v>
@@ -1222,8 +1205,8 @@
       <c r="E24">
         <v>1.1778599999999999</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
+      <c r="F24">
+        <v>47.13</v>
       </c>
       <c r="G24">
         <v>0.70591999999999999</v>
@@ -1251,8 +1234,8 @@
       <c r="E25">
         <v>1.14103</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
+      <c r="F25">
+        <v>47.11</v>
       </c>
       <c r="G25">
         <v>0.70184999999999997</v>
@@ -1280,8 +1263,8 @@
       <c r="E26">
         <v>1.09613</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
+      <c r="F26">
+        <v>47.137</v>
       </c>
       <c r="G26">
         <v>0.68784999999999996</v>
@@ -1309,8 +1292,8 @@
       <c r="E27">
         <v>1.09721</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
+      <c r="F27">
+        <v>47.98</v>
       </c>
       <c r="G27">
         <v>0.67825999999999997</v>
@@ -1338,8 +1321,8 @@
       <c r="E28">
         <v>1.11049</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
+      <c r="F28">
+        <v>48</v>
       </c>
       <c r="G28">
         <v>0.68737999999999999</v>
@@ -1367,8 +1350,8 @@
       <c r="E29">
         <v>1.11557</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
+      <c r="F29">
+        <v>47.94</v>
       </c>
       <c r="G29">
         <v>0.70155999999999996</v>
@@ -1396,8 +1379,8 @@
       <c r="E30">
         <v>1.1242300000000001</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
+      <c r="F30">
+        <v>48.22</v>
       </c>
       <c r="G30">
         <v>0.68747000000000003</v>
@@ -1425,8 +1408,8 @@
       <c r="E31">
         <v>1.1636</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
+      <c r="F31">
+        <v>48.51</v>
       </c>
       <c r="G31">
         <v>0.70877000000000001</v>
@@ -1454,8 +1437,8 @@
       <c r="E32">
         <v>1.15022</v>
       </c>
-      <c r="F32" t="s">
-        <v>12</v>
+      <c r="F32">
+        <v>48.71</v>
       </c>
       <c r="G32">
         <v>0.70562000000000002</v>
@@ -1483,8 +1466,8 @@
       <c r="E33">
         <v>1.1471800000000001</v>
       </c>
-      <c r="F33" t="s">
-        <v>12</v>
+      <c r="F33">
+        <v>48.78</v>
       </c>
       <c r="G33">
         <v>0.70111000000000001</v>
@@ -1512,8 +1495,8 @@
       <c r="E34">
         <v>1.11049</v>
       </c>
-      <c r="F34" t="s">
-        <v>12</v>
+      <c r="F34">
+        <v>48.93</v>
       </c>
       <c r="G34">
         <v>0.68611</v>
@@ -1541,8 +1524,8 @@
       <c r="E35">
         <v>1.0704400000000001</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
+      <c r="F35">
+        <v>49.02</v>
       </c>
       <c r="G35">
         <v>0.68713999999999997</v>
@@ -1570,8 +1553,8 @@
       <c r="E36">
         <v>1.00857</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
+      <c r="F36">
+        <v>48.81</v>
       </c>
       <c r="G36">
         <v>0.65210000000000001</v>
@@ -1599,8 +1582,8 @@
       <c r="E37">
         <v>1.02291</v>
       </c>
-      <c r="F37" t="s">
-        <v>12</v>
+      <c r="F37">
+        <v>48.63</v>
       </c>
       <c r="G37">
         <v>0.63951000000000002</v>
@@ -1628,8 +1611,8 @@
       <c r="E38">
         <v>1.0180199999999999</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
+      <c r="F38">
+        <v>48.45</v>
       </c>
       <c r="G38">
         <v>0.64515999999999996</v>
@@ -1657,8 +1640,8 @@
       <c r="E39">
         <v>1.0135799999999999</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
+      <c r="F39">
+        <v>48.34</v>
       </c>
       <c r="G39">
         <v>0.63741000000000003</v>
@@ -1686,8 +1669,8 @@
       <c r="E40">
         <v>1.0098</v>
       </c>
-      <c r="F40" t="s">
-        <v>12</v>
+      <c r="F40">
+        <v>48.31</v>
       </c>
       <c r="G40">
         <v>0.63905999999999996</v>
@@ -1715,8 +1698,8 @@
       <c r="E41">
         <v>1.00573</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
+      <c r="F41">
+        <v>48.27</v>
       </c>
       <c r="G41">
         <v>0.64200999999999997</v>
@@ -1744,8 +1727,8 @@
       <c r="E42">
         <v>0.95284999999999997</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
+      <c r="F42">
+        <v>47.95</v>
       </c>
       <c r="G42">
         <v>0.62109999999999999</v>
@@ -1773,8 +1756,8 @@
       <c r="E43">
         <v>0.92869999999999997</v>
       </c>
-      <c r="F43" t="s">
-        <v>12</v>
+      <c r="F43">
+        <v>47.75</v>
       </c>
       <c r="G43">
         <v>0.60704999999999998</v>
@@ -1802,8 +1785,8 @@
       <c r="E44">
         <v>0.92530000000000001</v>
       </c>
-      <c r="F44" t="s">
-        <v>12</v>
+      <c r="F44">
+        <v>47.66</v>
       </c>
       <c r="G44">
         <v>0.63590000000000002</v>
@@ -1831,8 +1814,8 @@
       <c r="E45">
         <v>0.91610000000000003</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
+      <c r="F45">
+        <v>47.45</v>
       </c>
       <c r="G45">
         <v>0.63180000000000003</v>
@@ -1860,8 +1843,8 @@
       <c r="E46">
         <v>0.89419999999999999</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
+      <c r="F46">
+        <v>47.33</v>
       </c>
       <c r="G46">
         <v>0.62565000000000004</v>
@@ -1889,8 +1872,8 @@
       <c r="E47">
         <v>0.84819999999999995</v>
       </c>
-      <c r="F47" t="s">
-        <v>12</v>
+      <c r="F47">
+        <v>47.1</v>
       </c>
       <c r="G47">
         <v>0.61119999999999997</v>
@@ -1918,8 +1901,8 @@
       <c r="E48">
         <v>0.86870000000000003</v>
       </c>
-      <c r="F48" t="s">
-        <v>12</v>
+      <c r="F48">
+        <v>46.435000000000002</v>
       </c>
       <c r="G48">
         <v>0.60429999999999995</v>
@@ -1947,8 +1930,8 @@
       <c r="E49">
         <v>0.89034999999999997</v>
       </c>
-      <c r="F49" t="s">
-        <v>12</v>
+      <c r="F49">
+        <v>46.16</v>
       </c>
       <c r="G49">
         <v>0.62085000000000001</v>
@@ -1976,8 +1959,8 @@
       <c r="E50">
         <v>0.91005000000000003</v>
       </c>
-      <c r="F50" t="s">
-        <v>12</v>
+      <c r="F50">
+        <v>45.83</v>
       </c>
       <c r="G50">
         <v>0.63300000000000001</v>
@@ -2005,8 +1988,8 @@
       <c r="E51">
         <v>0.85785</v>
       </c>
-      <c r="F51" t="s">
-        <v>12</v>
+      <c r="F51">
+        <v>45.55</v>
       </c>
       <c r="G51">
         <v>0.6018</v>
@@ -2034,8 +2017,8 @@
       <c r="E52">
         <v>0.86250000000000004</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
+      <c r="F52">
+        <v>45.31</v>
       </c>
       <c r="G52">
         <v>0.58965000000000001</v>
@@ -2063,8 +2046,8 @@
       <c r="E53">
         <v>0.83374999999999999</v>
       </c>
-      <c r="F53" t="s">
-        <v>12</v>
+      <c r="F53">
+        <v>45.695</v>
       </c>
       <c r="G53">
         <v>0.58079999999999998</v>
@@ -2092,8 +2075,8 @@
       <c r="E54">
         <v>0.79400000000000004</v>
       </c>
-      <c r="F54" t="s">
-        <v>12</v>
+      <c r="F54">
+        <v>45.625</v>
       </c>
       <c r="G54">
         <v>0.56000000000000005</v>
@@ -2121,8 +2104,8 @@
       <c r="E55">
         <v>0.80145</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
+      <c r="F55">
+        <v>45.28</v>
       </c>
       <c r="G55">
         <v>0.54830000000000001</v>
@@ -2150,8 +2133,8 @@
       <c r="E56">
         <v>0.80044999999999999</v>
       </c>
-      <c r="F56" t="s">
-        <v>12</v>
+      <c r="F56">
+        <v>45.2</v>
       </c>
       <c r="G56">
         <v>0.53520000000000001</v>
@@ -2179,8 +2162,8 @@
       <c r="E57">
         <v>0.81200000000000006</v>
       </c>
-      <c r="F57" t="s">
-        <v>12</v>
+      <c r="F57">
+        <v>43.35</v>
       </c>
       <c r="G57">
         <v>0.54169999999999996</v>
@@ -2208,8 +2191,8 @@
       <c r="E58">
         <v>0.83494999999999997</v>
       </c>
-      <c r="F58" t="s">
-        <v>12</v>
+      <c r="F58">
+        <v>44.83</v>
       </c>
       <c r="G58">
         <v>0.56235000000000002</v>
@@ -2237,8 +2220,8 @@
       <c r="E59">
         <v>0.82050000000000001</v>
       </c>
-      <c r="F59" t="s">
-        <v>12</v>
+      <c r="F59">
+        <v>45.41</v>
       </c>
       <c r="G59">
         <v>0.54574999999999996</v>
@@ -2266,8 +2249,8 @@
       <c r="E60">
         <v>0.8196</v>
       </c>
-      <c r="F60" t="s">
-        <v>12</v>
+      <c r="F60">
+        <v>45.85</v>
       </c>
       <c r="G60">
         <v>0.54935</v>
@@ -2295,8 +2278,8 @@
       <c r="E61">
         <v>0.83209999999999995</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
+      <c r="F61">
+        <v>46.305</v>
       </c>
       <c r="G61">
         <v>0.54949999999999999</v>
@@ -2324,8 +2307,8 @@
       <c r="E62">
         <v>0.82081999999999999</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
+      <c r="F62">
+        <v>46.305</v>
       </c>
       <c r="G62">
         <v>0.55483000000000005</v>
@@ -2353,8 +2336,8 @@
       <c r="E63">
         <v>0.80411999999999995</v>
       </c>
-      <c r="F63" t="s">
-        <v>12</v>
+      <c r="F63">
+        <v>45.83</v>
       </c>
       <c r="G63">
         <v>0.55188000000000004</v>
@@ -2382,8 +2365,8 @@
       <c r="E64">
         <v>0.78137000000000001</v>
       </c>
-      <c r="F64" t="s">
-        <v>12</v>
+      <c r="F64">
+        <v>45.375</v>
       </c>
       <c r="G64">
         <v>0.54452999999999996</v>
@@ -2411,8 +2394,8 @@
       <c r="E65">
         <v>0.75317999999999996</v>
       </c>
-      <c r="F65" t="s">
-        <v>12</v>
+      <c r="F65">
+        <v>44.27</v>
       </c>
       <c r="G65">
         <v>0.52371000000000001</v>
@@ -2440,8 +2423,8 @@
       <c r="E66">
         <v>0.73782000000000003</v>
       </c>
-      <c r="F66" t="s">
-        <v>12</v>
+      <c r="F66">
+        <v>43.414999999999999</v>
       </c>
       <c r="G66">
         <v>0.52127999999999997</v>
@@ -2469,8 +2452,8 @@
       <c r="E67">
         <v>0.76702000000000004</v>
       </c>
-      <c r="F67" t="s">
-        <v>12</v>
+      <c r="F67">
+        <v>43.7</v>
       </c>
       <c r="G67">
         <v>0.53108</v>
@@ -2498,8 +2481,8 @@
       <c r="E68">
         <v>0.75609000000000004</v>
       </c>
-      <c r="F68" t="s">
-        <v>12</v>
+      <c r="F68">
+        <v>43.7</v>
       </c>
       <c r="G68">
         <v>0.52054999999999996</v>
@@ -2527,8 +2510,8 @@
       <c r="E69">
         <v>0.77134000000000003</v>
       </c>
-      <c r="F69" t="s">
-        <v>12</v>
+      <c r="F69">
+        <v>43.645000000000003</v>
       </c>
       <c r="G69">
         <v>0.52898999999999996</v>
@@ -2556,8 +2539,8 @@
       <c r="E70">
         <v>0.77690999999999999</v>
       </c>
-      <c r="F70" t="s">
-        <v>12</v>
+      <c r="F70">
+        <v>43.575000000000003</v>
       </c>
       <c r="G70">
         <v>0.52392000000000005</v>
@@ -2585,8 +2568,8 @@
       <c r="E71">
         <v>0.81274000000000002</v>
       </c>
-      <c r="F71" t="s">
-        <v>12</v>
+      <c r="F71">
+        <v>43.75</v>
       </c>
       <c r="G71">
         <v>0.55030999999999997</v>
@@ -2614,8 +2597,8 @@
       <c r="E72">
         <v>0.82596999999999998</v>
       </c>
-      <c r="F72" t="s">
-        <v>12</v>
+      <c r="F72">
+        <v>43.465000000000003</v>
       </c>
       <c r="G72">
         <v>0.55820999999999998</v>
@@ -2643,8 +2626,8 @@
       <c r="E73">
         <v>0.82498000000000005</v>
       </c>
-      <c r="F73" t="s">
-        <v>12</v>
+      <c r="F73">
+        <v>43.39</v>
       </c>
       <c r="G73">
         <v>0.56893000000000005</v>
@@ -2672,8 +2655,8 @@
       <c r="E74">
         <v>0.80994999999999995</v>
       </c>
-      <c r="F74" t="s">
-        <v>12</v>
+      <c r="F74">
+        <v>43.965000000000003</v>
       </c>
       <c r="G74">
         <v>0.55428999999999995</v>
@@ -2701,8 +2684,8 @@
       <c r="E75">
         <v>0.83150999999999997</v>
       </c>
-      <c r="F75" t="s">
-        <v>12</v>
+      <c r="F75">
+        <v>44.075000000000003</v>
       </c>
       <c r="G75">
         <v>0.56647999999999998</v>
@@ -2730,8 +2713,8 @@
       <c r="E76">
         <v>0.83384999999999998</v>
       </c>
-      <c r="F76" t="s">
-        <v>12</v>
+      <c r="F76">
+        <v>45.075000000000003</v>
       </c>
       <c r="G76">
         <v>0.56510000000000005</v>
@@ -2759,8 +2742,8 @@
       <c r="E77">
         <v>0.84838999999999998</v>
       </c>
-      <c r="F77" t="s">
-        <v>12</v>
+      <c r="F77">
+        <v>46.08</v>
       </c>
       <c r="G77">
         <v>0.57828999999999997</v>
@@ -2788,8 +2771,8 @@
       <c r="E78">
         <v>0.84394999999999998</v>
       </c>
-      <c r="F78" t="s">
-        <v>12</v>
+      <c r="F78">
+        <v>45.01</v>
       </c>
       <c r="G78">
         <v>0.58042000000000005</v>
@@ -2817,8 +2800,8 @@
       <c r="E79">
         <v>0.82264000000000004</v>
       </c>
-      <c r="F79" t="s">
-        <v>12</v>
+      <c r="F79">
+        <v>44.14</v>
       </c>
       <c r="G79">
         <v>0.56196000000000002</v>
@@ -2846,8 +2829,8 @@
       <c r="E80">
         <v>0.83882000000000001</v>
       </c>
-      <c r="F80" t="s">
-        <v>12</v>
+      <c r="F80">
+        <v>44.37</v>
       </c>
       <c r="G80">
         <v>0.57028999999999996</v>
@@ -2875,8 +2858,8 @@
       <c r="E81">
         <v>0.82538999999999996</v>
       </c>
-      <c r="F81" t="s">
-        <v>12</v>
+      <c r="F81">
+        <v>44.45</v>
       </c>
       <c r="G81">
         <v>0.57565999999999995</v>
@@ -2904,8 +2887,8 @@
       <c r="E82">
         <v>0.79152</v>
       </c>
-      <c r="F82" t="s">
-        <v>12</v>
+      <c r="F82">
+        <v>44.79</v>
       </c>
       <c r="G82">
         <v>0.54767999999999994</v>
@@ -2933,8 +2916,8 @@
       <c r="E83">
         <v>0.78081999999999996</v>
       </c>
-      <c r="F83" t="s">
-        <v>12</v>
+      <c r="F83">
+        <v>46.344999999999999</v>
       </c>
       <c r="G83">
         <v>0.53486999999999996</v>
@@ -2962,8 +2945,8 @@
       <c r="E84">
         <v>0.78180000000000005</v>
       </c>
-      <c r="F84" t="s">
-        <v>12</v>
+      <c r="F84">
+        <v>46.07</v>
       </c>
       <c r="G84">
         <v>0.54103999999999997</v>
@@ -2991,8 +2974,8 @@
       <c r="E85">
         <v>0.78327000000000002</v>
       </c>
-      <c r="F85" t="s">
-        <v>12</v>
+      <c r="F85">
+        <v>46.582500000000003</v>
       </c>
       <c r="G85">
         <v>0.53542000000000001</v>
@@ -3020,8 +3003,8 @@
       <c r="E86">
         <v>0.78042999999999996</v>
       </c>
-      <c r="F86" t="s">
-        <v>12</v>
+      <c r="F86">
+        <v>46.52</v>
       </c>
       <c r="G86">
         <v>0.52500999999999998</v>
@@ -3049,8 +3032,8 @@
       <c r="E87">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F87" t="s">
-        <v>12</v>
+      <c r="F87">
+        <v>45.924999999999997</v>
       </c>
       <c r="G87">
         <v>0.53415000000000001</v>
@@ -3078,8 +3061,8 @@
       <c r="E88">
         <v>0.78358000000000005</v>
       </c>
-      <c r="F88" t="s">
-        <v>12</v>
+      <c r="F88">
+        <v>44.87</v>
       </c>
       <c r="G88">
         <v>0.52425999999999995</v>
@@ -3107,8 +3090,8 @@
       <c r="E89">
         <v>0.75517000000000001</v>
       </c>
-      <c r="F89" t="s">
-        <v>12</v>
+      <c r="F89">
+        <v>44.66</v>
       </c>
       <c r="G89">
         <v>0.50866999999999996</v>
@@ -3136,8 +3119,8 @@
       <c r="E90">
         <v>0.75775000000000003</v>
       </c>
-      <c r="F90" t="s">
-        <v>12</v>
+      <c r="F90">
+        <v>44.26</v>
       </c>
       <c r="G90">
         <v>0.51051999999999997</v>
@@ -3165,8 +3148,8 @@
       <c r="E91">
         <v>0.76731000000000005</v>
       </c>
-      <c r="F91" t="s">
-        <v>12</v>
+      <c r="F91">
+        <v>44.115000000000002</v>
       </c>
       <c r="G91">
         <v>0.50878000000000001</v>
@@ -3194,8 +3177,8 @@
       <c r="E92">
         <v>0.75592000000000004</v>
       </c>
-      <c r="F92" t="s">
-        <v>12</v>
+      <c r="F92">
+        <v>44.267000000000003</v>
       </c>
       <c r="G92">
         <v>0.50917999999999997</v>
@@ -3223,8 +3206,8 @@
       <c r="E93">
         <v>0.74880999999999998</v>
       </c>
-      <c r="F93" t="s">
-        <v>12</v>
+      <c r="F93">
+        <v>43.465000000000003</v>
       </c>
       <c r="G93">
         <v>0.50817000000000001</v>
@@ -3252,8 +3235,8 @@
       <c r="E94">
         <v>0.73270999999999997</v>
       </c>
-      <c r="F94" t="s">
-        <v>12</v>
+      <c r="F94">
+        <v>41.1875</v>
       </c>
       <c r="G94">
         <v>0.50012999999999996</v>
@@ -3281,8 +3264,8 @@
       <c r="E95">
         <v>0.74333000000000005</v>
       </c>
-      <c r="F95" t="s">
-        <v>12</v>
+      <c r="F95">
+        <v>40.524999999999999</v>
       </c>
       <c r="G95">
         <v>0.50509999999999999</v>
@@ -3310,8 +3293,8 @@
       <c r="E96">
         <v>0.73848000000000003</v>
       </c>
-      <c r="F96" t="s">
-        <v>12</v>
+      <c r="F96">
+        <v>40.655000000000001</v>
       </c>
       <c r="G96">
         <v>0.49781999999999998</v>
@@ -3339,8 +3322,8 @@
       <c r="E97">
         <v>0.73082000000000003</v>
       </c>
-      <c r="F97" t="s">
-        <v>12</v>
+      <c r="F97">
+        <v>40.454999999999998</v>
       </c>
       <c r="G97">
         <v>0.49230000000000002</v>
@@ -3368,8 +3351,8 @@
       <c r="E98">
         <v>0.73370000000000002</v>
       </c>
-      <c r="F98" t="s">
-        <v>12</v>
+      <c r="F98">
+        <v>40.884999999999998</v>
       </c>
       <c r="G98">
         <v>0.49575999999999998</v>
@@ -3397,8 +3380,8 @@
       <c r="E99">
         <v>0.70091999999999999</v>
       </c>
-      <c r="F99" t="s">
-        <v>12</v>
+      <c r="F99">
+        <v>39.85</v>
       </c>
       <c r="G99">
         <v>0.48846000000000001</v>
@@ -3426,8 +3409,8 @@
       <c r="E100">
         <v>0.69027000000000005</v>
       </c>
-      <c r="F100" t="s">
-        <v>12</v>
+      <c r="F100">
+        <v>39.3125</v>
       </c>
       <c r="G100">
         <v>0.48082000000000003</v>
@@ -3455,8 +3438,8 @@
       <c r="E101">
         <v>0.68337999999999999</v>
       </c>
-      <c r="F101" t="s">
-        <v>12</v>
+      <c r="F101">
+        <v>39.494999999999997</v>
       </c>
       <c r="G101">
         <v>0.48630000000000001</v>
@@ -3484,8 +3467,8 @@
       <c r="E102">
         <v>0.6855</v>
       </c>
-      <c r="F102" t="s">
-        <v>12</v>
+      <c r="F102">
+        <v>39.414999999999999</v>
       </c>
       <c r="G102">
         <v>0.50375000000000003</v>
@@ -3513,8 +3496,8 @@
       <c r="E103">
         <v>0.67290000000000005</v>
       </c>
-      <c r="F103" t="s">
-        <v>12</v>
+      <c r="F103">
+        <v>39.354999999999997</v>
       </c>
       <c r="G103">
         <v>0.50321000000000005</v>
@@ -3542,8 +3525,8 @@
       <c r="E104">
         <v>0.65883000000000003</v>
       </c>
-      <c r="F104" t="s">
-        <v>12</v>
+      <c r="F104">
+        <v>40.380000000000003</v>
       </c>
       <c r="G104">
         <v>0.50273000000000001</v>
@@ -3571,8 +3554,8 @@
       <c r="E105">
         <v>0.63339000000000001</v>
       </c>
-      <c r="F105" t="s">
-        <v>12</v>
+      <c r="F105">
+        <v>40.119999999999997</v>
       </c>
       <c r="G105">
         <v>0.50409999999999999</v>
@@ -3600,8 +3583,8 @@
       <c r="E106">
         <v>0.6401</v>
       </c>
-      <c r="F106" t="s">
-        <v>12</v>
+      <c r="F106">
+        <v>40.484999999999999</v>
       </c>
       <c r="G106">
         <v>0.50329999999999997</v>
@@ -3629,8 +3612,8 @@
       <c r="E107">
         <v>0.64290999999999998</v>
       </c>
-      <c r="F107" t="s">
-        <v>12</v>
+      <c r="F107">
+        <v>42.405000000000001</v>
       </c>
       <c r="G107">
         <v>0.50449999999999995</v>
@@ -3658,8 +3641,8 @@
       <c r="E108">
         <v>0.63473000000000002</v>
       </c>
-      <c r="F108" t="s">
-        <v>12</v>
+      <c r="F108">
+        <v>43.335000000000001</v>
       </c>
       <c r="G108">
         <v>0.50192999999999999</v>
@@ -3687,8 +3670,8 @@
       <c r="E109">
         <v>0.64087000000000005</v>
       </c>
-      <c r="F109" t="s">
-        <v>12</v>
+      <c r="F109">
+        <v>42.354999999999997</v>
       </c>
       <c r="G109">
         <v>0.504</v>
@@ -3716,8 +3699,8 @@
       <c r="E110">
         <v>0.68152000000000001</v>
       </c>
-      <c r="F110" t="s">
-        <v>12</v>
+      <c r="F110">
+        <v>44.185000000000002</v>
       </c>
       <c r="G110">
         <v>0.54910999999999999</v>
@@ -3745,8 +3728,8 @@
       <c r="E111">
         <v>0.70960000000000001</v>
       </c>
-      <c r="F111" t="s">
-        <v>12</v>
+      <c r="F111">
+        <v>46.625</v>
       </c>
       <c r="G111">
         <v>0.56162000000000001</v>
@@ -3774,8 +3757,8 @@
       <c r="E112">
         <v>0.78552999999999995</v>
       </c>
-      <c r="F112" t="s">
-        <v>12</v>
+      <c r="F112">
+        <v>48.655000000000001</v>
       </c>
       <c r="G112">
         <v>0.62205999999999995</v>
@@ -3803,8 +3786,8 @@
       <c r="E113">
         <v>0.78793999999999997</v>
       </c>
-      <c r="F113" t="s">
-        <v>12</v>
+      <c r="F113">
+        <v>50.274999999999999</v>
       </c>
       <c r="G113">
         <v>0.65046000000000004</v>
@@ -3832,8 +3815,8 @@
       <c r="E114">
         <v>0.71562999999999999</v>
       </c>
-      <c r="F114" t="s">
-        <v>12</v>
+      <c r="F114">
+        <v>48.72</v>
       </c>
       <c r="G114">
         <v>0.68484</v>
@@ -3861,8 +3844,8 @@
       <c r="E115">
         <v>0.78056999999999999</v>
       </c>
-      <c r="F115" t="s">
-        <v>12</v>
+      <c r="F115">
+        <v>48.924999999999997</v>
       </c>
       <c r="G115">
         <v>0.68772999999999995</v>
@@ -3890,8 +3873,8 @@
       <c r="E116">
         <v>0.78934000000000004</v>
       </c>
-      <c r="F116" t="s">
-        <v>12</v>
+      <c r="F116">
+        <v>51.914999999999999</v>
       </c>
       <c r="G116">
         <v>0.69849000000000006</v>
@@ -3919,8 +3902,8 @@
       <c r="E117">
         <v>0.75468999999999997</v>
       </c>
-      <c r="F117" t="s">
-        <v>12</v>
+      <c r="F117">
+        <v>50.734999999999999</v>
       </c>
       <c r="G117">
         <v>0.69815000000000005</v>
@@ -3948,8 +3931,8 @@
       <c r="E118">
         <v>0.75592000000000004</v>
       </c>
-      <c r="F118" t="s">
-        <v>12</v>
+      <c r="F118">
+        <v>50.034999999999997</v>
       </c>
       <c r="G118">
         <v>0.67613000000000001</v>
@@ -3977,8 +3960,8 @@
       <c r="E119">
         <v>0.70643</v>
       </c>
-      <c r="F119" t="s">
-        <v>12</v>
+      <c r="F119">
+        <v>46.965000000000003</v>
       </c>
       <c r="G119">
         <v>0.61768999999999996</v>
@@ -4006,8 +3989,8 @@
       <c r="E120">
         <v>0.71260999999999997</v>
       </c>
-      <c r="F120" t="s">
-        <v>12</v>
+      <c r="F120">
+        <v>47.89</v>
       </c>
       <c r="G120">
         <v>0.60760999999999998</v>
@@ -4035,8 +4018,8 @@
       <c r="E121">
         <v>0.70143999999999995</v>
       </c>
-      <c r="F121" t="s">
-        <v>12</v>
+      <c r="F121">
+        <v>47.634999999999998</v>
       </c>
       <c r="G121">
         <v>0.59835000000000005</v>
@@ -4064,8 +4047,8 @@
       <c r="E122">
         <v>0.69767000000000001</v>
       </c>
-      <c r="F122" t="s">
-        <v>12</v>
+      <c r="F122">
+        <v>49.04</v>
       </c>
       <c r="G122">
         <v>0.61395</v>
@@ -4093,8 +4076,8 @@
       <c r="E123">
         <v>0.68311999999999995</v>
       </c>
-      <c r="F123" t="s">
-        <v>12</v>
+      <c r="F123">
+        <v>47.74</v>
       </c>
       <c r="G123">
         <v>0.62572000000000005</v>
@@ -4122,8 +4105,8 @@
       <c r="E124">
         <v>0.67934000000000005</v>
       </c>
-      <c r="F124" t="s">
-        <v>12</v>
+      <c r="F124">
+        <v>46.965000000000003</v>
       </c>
       <c r="G124">
         <v>0.60804999999999998</v>
@@ -4151,8 +4134,8 @@
       <c r="E125">
         <v>0.66646000000000005</v>
       </c>
-      <c r="F125" t="s">
-        <v>12</v>
+      <c r="F125">
+        <v>46.3125</v>
       </c>
       <c r="G125">
         <v>0.60826999999999998</v>
@@ -4180,8 +4163,8 @@
       <c r="E126">
         <v>0.69784000000000002</v>
       </c>
-      <c r="F126" t="s">
-        <v>12</v>
+      <c r="F126">
+        <v>46.534999999999997</v>
       </c>
       <c r="G126">
         <v>0.61841999999999997</v>
@@ -4209,8 +4192,8 @@
       <c r="E127">
         <v>0.72140000000000004</v>
       </c>
-      <c r="F127" t="s">
-        <v>12</v>
+      <c r="F127">
+        <v>46.375</v>
       </c>
       <c r="G127">
         <v>0.62558000000000002</v>
@@ -4238,8 +4221,8 @@
       <c r="E128">
         <v>0.73368999999999995</v>
       </c>
-      <c r="F128" t="s">
-        <v>12</v>
+      <c r="F128">
+        <v>46.104999999999997</v>
       </c>
       <c r="G128">
         <v>0.65624000000000005</v>
@@ -4267,8 +4250,8 @@
       <c r="E129">
         <v>0.74016999999999999</v>
       </c>
-      <c r="F129" t="s">
-        <v>12</v>
+      <c r="F129">
+        <v>44.895000000000003</v>
       </c>
       <c r="G129">
         <v>0.65858000000000005</v>
@@ -4296,8 +4279,8 @@
       <c r="E130">
         <v>0.75212999999999997</v>
       </c>
-      <c r="F130" t="s">
-        <v>12</v>
+      <c r="F130">
+        <v>44.52</v>
       </c>
       <c r="G130">
         <v>0.65475000000000005</v>
@@ -4325,8 +4308,8 @@
       <c r="E131">
         <v>0.81264999999999998</v>
       </c>
-      <c r="F131" t="s">
-        <v>12</v>
+      <c r="F131">
+        <v>47.155000000000001</v>
       </c>
       <c r="G131">
         <v>0.68776999999999999</v>
@@ -4354,8 +4337,8 @@
       <c r="E132">
         <v>0.81716</v>
       </c>
-      <c r="F132" t="s">
-        <v>12</v>
+      <c r="F132">
+        <v>46.585000000000001</v>
       </c>
       <c r="G132">
         <v>0.66912000000000005</v>
@@ -4383,8 +4366,8 @@
       <c r="E133">
         <v>0.76619999999999999</v>
       </c>
-      <c r="F133" t="s">
-        <v>12</v>
+      <c r="F133">
+        <v>46.244999999999997</v>
       </c>
       <c r="G133">
         <v>0.63731000000000004</v>
@@ -4412,8 +4395,8 @@
       <c r="E134">
         <v>0.78868000000000005</v>
       </c>
-      <c r="F134" t="s">
-        <v>12</v>
+      <c r="F134">
+        <v>46.81</v>
       </c>
       <c r="G134">
         <v>0.65154999999999996</v>
@@ -4441,8 +4424,8 @@
       <c r="E135">
         <v>0.73343999999999998</v>
       </c>
-      <c r="F135" t="s">
-        <v>12</v>
+      <c r="F135">
+        <v>44.475000000000001</v>
       </c>
       <c r="G135">
         <v>0.63629000000000002</v>
@@ -4470,8 +4453,8 @@
       <c r="E136">
         <v>0.71699999999999997</v>
       </c>
-      <c r="F136" t="s">
-        <v>12</v>
+      <c r="F136">
+        <v>44.47</v>
       </c>
       <c r="G136">
         <v>0.62351000000000001</v>
@@ -4499,8 +4482,8 @@
       <c r="E137">
         <v>0.77024999999999999</v>
       </c>
-      <c r="F137" t="s">
-        <v>12</v>
+      <c r="F137">
+        <v>45.375</v>
       </c>
       <c r="G137">
         <v>0.64258000000000004</v>
@@ -4528,8 +4511,8 @@
       <c r="E138">
         <v>0.74707999999999997</v>
       </c>
-      <c r="F138" t="s">
-        <v>12</v>
+      <c r="F138">
+        <v>44.725000000000001</v>
       </c>
       <c r="G138">
         <v>0.64054999999999995</v>
@@ -4557,8 +4540,8 @@
       <c r="E139">
         <v>0.73024999999999995</v>
       </c>
-      <c r="F139" t="s">
-        <v>12</v>
+      <c r="F139">
+        <v>45.765000000000001</v>
       </c>
       <c r="G139">
         <v>0.62448999999999999</v>
@@ -4586,8 +4569,8 @@
       <c r="E140">
         <v>0.72431999999999996</v>
       </c>
-      <c r="F140" t="s">
-        <v>12</v>
+      <c r="F140">
+        <v>44.945</v>
       </c>
       <c r="G140">
         <v>0.61512999999999995</v>
@@ -4615,8 +4598,8 @@
       <c r="E141">
         <v>0.70640999999999998</v>
       </c>
-      <c r="F141" t="s">
-        <v>12</v>
+      <c r="F141">
+        <v>44.594999999999999</v>
       </c>
       <c r="G141">
         <v>0.62390999999999996</v>
@@ -4644,8 +4627,8 @@
       <c r="E142">
         <v>0.67528999999999995</v>
       </c>
-      <c r="F142" t="s">
-        <v>12</v>
+      <c r="F142">
+        <v>44.335000000000001</v>
       </c>
       <c r="G142">
         <v>0.59858999999999996</v>
@@ -4673,8 +4656,8 @@
       <c r="E143">
         <v>0.69462999999999997</v>
       </c>
-      <c r="F143" t="s">
-        <v>12</v>
+      <c r="F143">
+        <v>44.844999999999999</v>
       </c>
       <c r="G143">
         <v>0.60797999999999996</v>
@@ -4702,8 +4685,8 @@
       <c r="E144">
         <v>0.68962000000000001</v>
       </c>
-      <c r="F144" t="s">
-        <v>12</v>
+      <c r="F144">
+        <v>44.582500000000003</v>
       </c>
       <c r="G144">
         <v>0.62295999999999996</v>
@@ -4731,8 +4714,8 @@
       <c r="E145">
         <v>0.69454000000000005</v>
       </c>
-      <c r="F145" t="s">
-        <v>12</v>
+      <c r="F145">
+        <v>44.08</v>
       </c>
       <c r="G145">
         <v>0.60894000000000004</v>
@@ -4760,8 +4743,8 @@
       <c r="E146">
         <v>0.69565999999999995</v>
       </c>
-      <c r="F146" t="s">
-        <v>12</v>
+      <c r="F146">
+        <v>46.05</v>
       </c>
       <c r="G146">
         <v>0.61539999999999995</v>
@@ -4790,7 +4773,7 @@
         <v>0.74685000000000001</v>
       </c>
       <c r="F147">
-        <v>48.963749999999997</v>
+        <v>49.155000000000001</v>
       </c>
       <c r="G147">
         <v>0.64165000000000005</v>
@@ -4819,7 +4802,7 @@
         <v>0.72155999999999998</v>
       </c>
       <c r="F148">
-        <v>48.694980000000001</v>
+        <v>49.274999999999999</v>
       </c>
       <c r="G148">
         <v>0.62163000000000002</v>
@@ -4848,7 +4831,7 @@
         <v>0.74375999999999998</v>
       </c>
       <c r="F149">
-        <v>52.21125</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="G149">
         <v>0.63678999999999997</v>
@@ -4877,7 +4860,7 @@
         <v>0.77139999999999997</v>
       </c>
       <c r="F150">
-        <v>53.064999999999998</v>
+        <v>53.104999999999997</v>
       </c>
       <c r="G150">
         <v>0.64346999999999999</v>
@@ -4906,7 +4889,7 @@
         <v>0.76427999999999996</v>
       </c>
       <c r="F151">
-        <v>49.454999999999998</v>
+        <v>49.27</v>
       </c>
       <c r="G151">
         <v>0.63446999999999998</v>
@@ -4935,7 +4918,7 @@
         <v>0.75055000000000005</v>
       </c>
       <c r="F152">
-        <v>49.02375</v>
+        <v>49.215000000000003</v>
       </c>
       <c r="G152">
         <v>0.62827999999999995</v>
@@ -4964,7 +4947,7 @@
         <v>0.74948000000000004</v>
       </c>
       <c r="F153">
-        <v>50.875</v>
+        <v>50.945</v>
       </c>
       <c r="G153">
         <v>0.62456</v>
@@ -4993,7 +4976,7 @@
         <v>0.75536000000000003</v>
       </c>
       <c r="F154">
-        <v>52.736249999999998</v>
+        <v>52.7</v>
       </c>
       <c r="G154">
         <v>0.61599999999999999</v>
@@ -5022,7 +5005,7 @@
         <v>0.80869999999999997</v>
       </c>
       <c r="F155">
-        <v>56.11</v>
+        <v>55.89</v>
       </c>
       <c r="G155">
         <v>0.64914000000000005</v>
@@ -5051,7 +5034,7 @@
         <v>0.78986000000000001</v>
       </c>
       <c r="F156">
-        <v>55.637500000000003</v>
+        <v>55.594999999999999</v>
       </c>
       <c r="G156">
         <v>0.63668999999999998</v>
@@ -5080,7 +5063,7 @@
         <v>0.81281999999999999</v>
       </c>
       <c r="F157">
-        <v>55.655009999999997</v>
+        <v>55.484999999999999</v>
       </c>
       <c r="G157">
         <v>0.63783000000000001</v>
@@ -5109,7 +5092,7 @@
         <v>0.79523999999999995</v>
       </c>
       <c r="F158">
-        <v>55.526269999999997</v>
+        <v>55.534999999999997</v>
       </c>
       <c r="G158">
         <v>0.63026000000000004</v>
@@ -5138,7 +5121,7 @@
         <v>0.77768000000000004</v>
       </c>
       <c r="F159">
-        <v>52.859990000000003</v>
+        <v>52.625</v>
       </c>
       <c r="G159">
         <v>0.61853999999999998</v>
@@ -5167,7 +5150,7 @@
         <v>0.77185999999999999</v>
       </c>
       <c r="F160">
-        <v>53.813749999999999</v>
+        <v>53.76</v>
       </c>
       <c r="G160">
         <v>0.62</v>
@@ -5196,7 +5179,7 @@
         <v>0.76990999999999998</v>
       </c>
       <c r="F161">
-        <v>54.265000000000001</v>
+        <v>54.674999999999997</v>
       </c>
       <c r="G161">
         <v>0.62453000000000003</v>
@@ -5225,7 +5208,7 @@
         <v>0.75802999999999998</v>
       </c>
       <c r="F162">
-        <v>54.984999999999999</v>
+        <v>54.79</v>
       </c>
       <c r="G162">
         <v>0.61538000000000004</v>
@@ -5254,7 +5237,7 @@
         <v>0.73648999999999998</v>
       </c>
       <c r="F163">
-        <v>53.223750000000003</v>
+        <v>53.19</v>
       </c>
       <c r="G163">
         <v>0.63061</v>
@@ -5283,7 +5266,7 @@
         <v>0.76571999999999996</v>
       </c>
       <c r="F164">
-        <v>54.36</v>
+        <v>54.905000000000001</v>
       </c>
       <c r="G164">
         <v>0.65944000000000003</v>
@@ -5312,7 +5295,7 @@
         <v>0.78022000000000002</v>
       </c>
       <c r="F165">
-        <v>54.28</v>
+        <v>54.35</v>
       </c>
       <c r="G165">
         <v>0.65800000000000003</v>
@@ -5341,7 +5324,7 @@
         <v>0.75941999999999998</v>
       </c>
       <c r="F166">
-        <v>53.805</v>
+        <v>53.875</v>
       </c>
       <c r="G166">
         <v>0.64385000000000003</v>
@@ -5370,7 +5353,7 @@
         <v>0.76939999999999997</v>
       </c>
       <c r="F167">
-        <v>56.505000000000003</v>
+        <v>56.8</v>
       </c>
       <c r="G167">
         <v>0.65793000000000001</v>
@@ -5399,7 +5382,7 @@
         <v>0.76866000000000001</v>
       </c>
       <c r="F168">
-        <v>59.39</v>
+        <v>59.431199999999997</v>
       </c>
       <c r="G168">
         <v>0.65737000000000001</v>
@@ -5428,7 +5411,7 @@
         <v>0.75172000000000005</v>
       </c>
       <c r="F169">
-        <v>60.36</v>
+        <v>60.265000000000001</v>
       </c>
       <c r="G169">
         <v>0.65759999999999996</v>
@@ -5457,7 +5440,7 @@
         <v>0.75636999999999999</v>
       </c>
       <c r="F170">
-        <v>65.704999999999998</v>
+        <v>66.105000000000004</v>
       </c>
       <c r="G170">
         <v>0.64507000000000003</v>
@@ -5486,7 +5469,7 @@
         <v>0.73934</v>
       </c>
       <c r="F171">
-        <v>62.617519999999999</v>
+        <v>62.435000000000002</v>
       </c>
       <c r="G171">
         <v>0.61782999999999999</v>
@@ -5515,7 +5498,7 @@
         <v>0.73619000000000001</v>
       </c>
       <c r="F172">
-        <v>61.495019999999997</v>
+        <v>61.844999999999999</v>
       </c>
       <c r="G172">
         <v>0.62348000000000003</v>
@@ -5544,7 +5527,7 @@
         <v>0.73575000000000002</v>
       </c>
       <c r="F173">
-        <v>62.448749999999997</v>
+        <v>62.26</v>
       </c>
       <c r="G173">
         <v>0.61094999999999999</v>
@@ -5573,7 +5556,7 @@
         <v>0.72768999999999995</v>
       </c>
       <c r="F174">
-        <v>61.80001</v>
+        <v>61.854999999999997</v>
       </c>
       <c r="G174">
         <v>0.60396000000000005</v>
@@ -5602,7 +5585,7 @@
         <v>0.74155000000000004</v>
       </c>
       <c r="F175">
-        <v>62.657499999999999</v>
+        <v>62.692500000000003</v>
       </c>
       <c r="G175">
         <v>0.60831000000000002</v>
@@ -5631,7 +5614,7 @@
         <v>0.72455999999999998</v>
       </c>
       <c r="F176">
-        <v>61.7575</v>
+        <v>62.03</v>
       </c>
       <c r="G176">
         <v>0.59724999999999995</v>
@@ -5660,7 +5643,7 @@
         <v>0.72626999999999997</v>
       </c>
       <c r="F177">
-        <v>59.89</v>
+        <v>59.722499999999997</v>
       </c>
       <c r="G177">
         <v>0.60011999999999999</v>
@@ -5689,7 +5672,7 @@
         <v>0.72114</v>
       </c>
       <c r="F178">
-        <v>60.335000000000001</v>
+        <v>60.314999999999998</v>
       </c>
       <c r="G178">
         <v>0.59265999999999996</v>
@@ -5718,7 +5701,7 @@
         <v>0.73351999999999995</v>
       </c>
       <c r="F179">
-        <v>59.102499999999999</v>
+        <v>59.094999999999999</v>
       </c>
       <c r="G179">
         <v>0.59674000000000005</v>
@@ -5747,7 +5730,7 @@
         <v>0.73053000000000001</v>
       </c>
       <c r="F180">
-        <v>60.186250000000001</v>
+        <v>60.085000000000001</v>
       </c>
       <c r="G180">
         <v>0.58460999999999996</v>
@@ -5776,7 +5759,7 @@
         <v>0.74663000000000002</v>
       </c>
       <c r="F181">
-        <v>60.56</v>
+        <v>61.07</v>
       </c>
       <c r="G181">
         <v>0.59223000000000003</v>
@@ -5805,7 +5788,7 @@
         <v>0.76151999999999997</v>
       </c>
       <c r="F182">
-        <v>60.515000000000001</v>
+        <v>60.505000000000003</v>
       </c>
       <c r="G182">
         <v>0.60248000000000002</v>
@@ -5834,7 +5817,7 @@
         <v>0.79171999999999998</v>
       </c>
       <c r="F183">
-        <v>61.7575</v>
+        <v>61.625</v>
       </c>
       <c r="G183">
         <v>0.61680000000000001</v>
@@ -5863,7 +5846,7 @@
         <v>0.79832000000000003</v>
       </c>
       <c r="F184">
-        <v>61.3675</v>
+        <v>61.416200000000003</v>
       </c>
       <c r="G184">
         <v>0.62517999999999996</v>
@@ -5892,7 +5875,7 @@
         <v>0.80330999999999997</v>
       </c>
       <c r="F185">
-        <v>62.033749999999998</v>
+        <v>62.078699999999998</v>
       </c>
       <c r="G185">
         <v>0.63890000000000002</v>
@@ -5921,7 +5904,7 @@
         <v>0.82657999999999998</v>
       </c>
       <c r="F186">
-        <v>63.042499999999997</v>
+        <v>63.122500000000002</v>
       </c>
       <c r="G186">
         <v>0.64192000000000005</v>
@@ -5950,7 +5933,7 @@
         <v>0.88612999999999997</v>
       </c>
       <c r="F187">
-        <v>61.872500000000002</v>
+        <v>61.865000000000002</v>
       </c>
       <c r="G187">
         <v>0.66376999999999997</v>
@@ -5979,7 +5962,7 @@
         <v>0.89305999999999996</v>
       </c>
       <c r="F188">
-        <v>61.844999999999999</v>
+        <v>61.952500000000001</v>
       </c>
       <c r="G188">
         <v>0.64795999999999998</v>
@@ -6008,7 +5991,7 @@
         <v>0.93176000000000003</v>
       </c>
       <c r="F189">
-        <v>62.497500000000002</v>
+        <v>62.581200000000003</v>
       </c>
       <c r="G189">
         <v>0.67484</v>
@@ -6037,7 +6020,7 @@
         <v>0.89105999999999996</v>
       </c>
       <c r="F190">
-        <v>63.422499999999999</v>
+        <v>63.515000000000001</v>
       </c>
       <c r="G190">
         <v>0.65137</v>
@@ -6066,7 +6049,7 @@
         <v>0.90978000000000003</v>
       </c>
       <c r="F191">
-        <v>63.825000000000003</v>
+        <v>63.69</v>
       </c>
       <c r="G191">
         <v>0.65393000000000001</v>
@@ -6095,7 +6078,7 @@
         <v>0.89788000000000001</v>
       </c>
       <c r="F192">
-        <v>63.651249999999997</v>
+        <v>63.615000000000002</v>
       </c>
       <c r="G192">
         <v>0.63668999999999998</v>
@@ -6124,7 +6107,7 @@
         <v>0.91039999999999999</v>
       </c>
       <c r="F193">
-        <v>64.136250000000004</v>
+        <v>64.036199999999994</v>
       </c>
       <c r="G193">
         <v>0.64014000000000004</v>
@@ -6153,7 +6136,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="F194">
-        <v>66.482500000000002</v>
+        <v>66.245000000000005</v>
       </c>
       <c r="G194">
         <v>0.65168999999999999</v>
@@ -6182,7 +6165,7 @@
         <v>0.89468000000000003</v>
       </c>
       <c r="F195">
-        <v>65.59</v>
+        <v>65.564999999999998</v>
       </c>
       <c r="G195">
         <v>0.66098999999999997</v>
@@ -6211,7 +6194,7 @@
         <v>0.90854999999999997</v>
       </c>
       <c r="F196">
-        <v>65.265000000000001</v>
+        <v>65.584999999999994</v>
       </c>
       <c r="G196">
         <v>0.64814000000000005</v>
@@ -6240,7 +6223,7 @@
         <v>0.94657999999999998</v>
       </c>
       <c r="F197">
-        <v>66.667500000000004</v>
+        <v>66.55</v>
       </c>
       <c r="G197">
         <v>0.66420000000000001</v>
@@ -6269,7 +6252,7 @@
         <v>0.92096</v>
       </c>
       <c r="F198">
-        <v>66.153750000000002</v>
+        <v>66.156300000000002</v>
       </c>
       <c r="G198">
         <v>0.67857000000000001</v>
@@ -6298,7 +6281,7 @@
         <v>0.92327999999999999</v>
       </c>
       <c r="F199">
-        <v>67.792500000000004</v>
+        <v>67.844999999999999</v>
       </c>
       <c r="G199">
         <v>0.70203000000000004</v>
@@ -6327,7 +6310,7 @@
         <v>0.91974999999999996</v>
       </c>
       <c r="F200">
-        <v>68.42</v>
+        <v>67.924999999999997</v>
       </c>
       <c r="G200">
         <v>0.71853999999999996</v>
@@ -6356,7 +6339,7 @@
         <v>0.87873000000000001</v>
       </c>
       <c r="F201">
-        <v>66.247500000000002</v>
+        <v>66.222499999999997</v>
       </c>
       <c r="G201">
         <v>0.69633</v>
@@ -6385,7 +6368,7 @@
         <v>0.87331999999999999</v>
       </c>
       <c r="F202">
-        <v>66.33</v>
+        <v>66.415000000000006</v>
       </c>
       <c r="G202">
         <v>0.68439000000000005</v>
@@ -6414,7 +6397,7 @@
         <v>0.89829999999999999</v>
       </c>
       <c r="F203">
-        <v>67.259990000000002</v>
+        <v>67.422499999999999</v>
       </c>
       <c r="G203">
         <v>0.69047999999999998</v>
@@ -6443,7 +6426,7 @@
         <v>0.90037999999999996</v>
       </c>
       <c r="F204">
-        <v>67.524990000000003</v>
+        <v>67.344999999999999</v>
       </c>
       <c r="G204">
         <v>0.75122999999999995</v>
@@ -6472,7 +6455,7 @@
         <v>0.89488999999999996</v>
       </c>
       <c r="F205">
-        <v>66.995000000000005</v>
+        <v>66.765000000000001</v>
       </c>
       <c r="G205">
         <v>0.75597999999999999</v>
@@ -6501,7 +6484,7 @@
         <v>0.89624000000000004</v>
       </c>
       <c r="F206">
-        <v>66.963750000000005</v>
+        <v>66.995000000000005</v>
       </c>
       <c r="G206">
         <v>0.76112999999999997</v>
@@ -6530,7 +6513,7 @@
         <v>0.89010999999999996</v>
       </c>
       <c r="F207">
-        <v>66.615009999999998</v>
+        <v>66.537499999999994</v>
       </c>
       <c r="G207">
         <v>0.77051999999999998</v>
@@ -6559,7 +6542,7 @@
         <v>0.91068000000000005</v>
       </c>
       <c r="F208">
-        <v>66.778750000000002</v>
+        <v>66.737499999999997</v>
       </c>
       <c r="G208">
         <v>0.81689000000000001</v>
@@ -6588,7 +6571,7 @@
         <v>0.94438</v>
       </c>
       <c r="F209">
-        <v>68.388750000000002</v>
+        <v>68.371200000000002</v>
       </c>
       <c r="G209">
         <v>0.79959999999999998</v>
@@ -6617,7 +6600,7 @@
         <v>0.95060999999999996</v>
       </c>
       <c r="F210">
-        <v>67.924999999999997</v>
+        <v>67.87</v>
       </c>
       <c r="G210">
         <v>0.81013999999999997</v>
@@ -6646,7 +6629,7 @@
         <v>0.92610999999999999</v>
       </c>
       <c r="F211">
-        <v>67.865009999999998</v>
+        <v>67.537499999999994</v>
       </c>
       <c r="G211">
         <v>0.79491000000000001</v>
@@ -6675,7 +6658,7 @@
         <v>0.94549000000000005</v>
       </c>
       <c r="F212">
-        <v>66.69</v>
+        <v>66.825000000000003</v>
       </c>
       <c r="G212">
         <v>0.80776999999999999</v>
@@ -6704,7 +6687,7 @@
         <v>0.93850999999999996</v>
       </c>
       <c r="F213">
-        <v>64.850009999999997</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="G213">
         <v>0.79679999999999995</v>
@@ -6733,7 +6716,7 @@
         <v>0.91778000000000004</v>
       </c>
       <c r="F214">
-        <v>64.245000000000005</v>
+        <v>64.33</v>
       </c>
       <c r="G214">
         <v>0.77215</v>
@@ -6762,7 +6745,7 @@
         <v>0.88941000000000003</v>
       </c>
       <c r="F215">
-        <v>64.511250000000004</v>
+        <v>64.542500000000004</v>
       </c>
       <c r="G215">
         <v>0.77576999999999996</v>
@@ -6791,7 +6774,7 @@
         <v>0.87514999999999998</v>
       </c>
       <c r="F216">
-        <v>64.578749999999999</v>
+        <v>64.858699999999999</v>
       </c>
       <c r="G216">
         <v>0.76773000000000002</v>
@@ -6820,7 +6803,7 @@
         <v>0.84445999999999999</v>
       </c>
       <c r="F217">
-        <v>64.1875</v>
+        <v>64.071200000000005</v>
       </c>
       <c r="G217">
         <v>0.75673000000000001</v>
@@ -6849,7 +6832,7 @@
         <v>0.83965999999999996</v>
       </c>
       <c r="F218">
-        <v>63.90625</v>
+        <v>64.022300000000001</v>
       </c>
       <c r="G218">
         <v>0.77356000000000003</v>
@@ -6878,7 +6861,7 @@
         <v>0.84641999999999995</v>
       </c>
       <c r="F219">
-        <v>65.276250000000005</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="G219">
         <v>0.74646999999999997</v>
@@ -6907,7 +6890,7 @@
         <v>0.85867000000000004</v>
       </c>
       <c r="F220">
-        <v>64.746250000000003</v>
+        <v>64.591399999999993</v>
       </c>
       <c r="G220">
         <v>0.75278999999999996</v>
@@ -6936,7 +6919,7 @@
         <v>0.84006000000000003</v>
       </c>
       <c r="F221">
-        <v>64.458759999999998</v>
+        <v>64.48</v>
       </c>
       <c r="G221">
         <v>0.73924999999999996</v>
@@ -6965,7 +6948,7 @@
         <v>0.83304</v>
       </c>
       <c r="F222">
-        <v>63.871250000000003</v>
+        <v>63.827500000000001</v>
       </c>
       <c r="G222">
         <v>0.74019999999999997</v>
@@ -6994,7 +6977,7 @@
         <v>0.80556000000000005</v>
       </c>
       <c r="F223">
-        <v>63.58625</v>
+        <v>63.847499999999997</v>
       </c>
       <c r="G223">
         <v>0.70457999999999998</v>
@@ -7023,7 +7006,7 @@
         <v>0.82008999999999999</v>
       </c>
       <c r="F224">
-        <v>65.177509999999998</v>
+        <v>65.224999999999994</v>
       </c>
       <c r="G224">
         <v>0.72675000000000001</v>
@@ -7052,7 +7035,7 @@
         <v>0.81140000000000001</v>
       </c>
       <c r="F225">
-        <v>65.177509999999998</v>
+        <v>65.221699999999998</v>
       </c>
       <c r="G225">
         <v>0.71340000000000003</v>
@@ -7081,7 +7064,7 @@
         <v>0.82789999999999997</v>
       </c>
       <c r="F226">
-        <v>66.661249999999995</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="G226">
         <v>0.72648000000000001</v>
@@ -7110,7 +7093,7 @@
         <v>0.85526999999999997</v>
       </c>
       <c r="F227">
-        <v>67.396259999999998</v>
+        <v>67.087500000000006</v>
       </c>
       <c r="G227">
         <v>0.75209999999999999</v>
@@ -7139,7 +7122,7 @@
         <v>0.85584000000000005</v>
       </c>
       <c r="F228">
-        <v>68.47</v>
+        <v>68.738699999999994</v>
       </c>
       <c r="G228">
         <v>0.75722999999999996</v>
@@ -7168,7 +7151,7 @@
         <v>0.85540000000000005</v>
       </c>
       <c r="F229">
-        <v>68.547499999999999</v>
+        <v>68.456199999999995</v>
       </c>
       <c r="G229">
         <v>0.76193</v>
@@ -7197,7 +7180,7 @@
         <v>0.86199000000000003</v>
       </c>
       <c r="F230">
-        <v>70.996250000000003</v>
+        <v>71.067499999999995</v>
       </c>
       <c r="G230">
         <v>0.77164999999999995</v>
@@ -7226,7 +7209,7 @@
         <v>0.86173999999999995</v>
       </c>
       <c r="F231">
-        <v>72.490020000000001</v>
+        <v>72.864999999999995</v>
       </c>
       <c r="G231">
         <v>0.76758000000000004</v>
@@ -7255,7 +7238,7 @@
         <v>0.88404000000000005</v>
       </c>
       <c r="F232">
-        <v>73.954999999999998</v>
+        <v>73.537499999999994</v>
       </c>
       <c r="G232">
         <v>0.78335999999999995</v>
@@ -7284,7 +7267,7 @@
         <v>0.88353999999999999</v>
       </c>
       <c r="F233">
-        <v>69.583749999999995</v>
+        <v>70.372500000000002</v>
       </c>
       <c r="G233">
         <v>0.78425</v>
@@ -7313,7 +7296,7 @@
         <v>0.87216000000000005</v>
       </c>
       <c r="F234">
-        <v>69.771249999999995</v>
+        <v>69.814999999999998</v>
       </c>
       <c r="G234">
         <v>0.78391999999999995</v>
@@ -7342,7 +7325,7 @@
         <v>0.87356</v>
       </c>
       <c r="F235">
-        <v>71.084999999999994</v>
+        <v>71.287499999999994</v>
       </c>
       <c r="G235">
         <v>0.76276999999999995</v>
@@ -7371,7 +7354,7 @@
         <v>0.87944999999999995</v>
       </c>
       <c r="F236">
-        <v>70.745000000000005</v>
+        <v>70.867500000000007</v>
       </c>
       <c r="G236">
         <v>0.754</v>
@@ -7400,7 +7383,7 @@
         <v>0.89142999999999994</v>
       </c>
       <c r="F237">
-        <v>69.148750000000007</v>
+        <v>69.275000000000006</v>
       </c>
       <c r="G237">
         <v>0.76715</v>
@@ -7429,7 +7412,7 @@
         <v>0.89166000000000001</v>
       </c>
       <c r="F238">
-        <v>69.556250000000006</v>
+        <v>69.553700000000006</v>
       </c>
       <c r="G238">
         <v>0.76729999999999998</v>
@@ -7458,7 +7441,7 @@
         <v>0.89537999999999995</v>
       </c>
       <c r="F239">
-        <v>69.697490000000002</v>
+        <v>69.266199999999998</v>
       </c>
       <c r="G239">
         <v>0.79161000000000004</v>
@@ -7487,7 +7470,7 @@
         <v>0.87927999999999995</v>
       </c>
       <c r="F240">
-        <v>69.027500000000003</v>
+        <v>68.953699999999998</v>
       </c>
       <c r="G240">
         <v>0.78752999999999995</v>
@@ -7516,7 +7499,7 @@
         <v>0.90285000000000004</v>
       </c>
       <c r="F241">
-        <v>68.8</v>
+        <v>69.058700000000002</v>
       </c>
       <c r="G241">
         <v>0.82247000000000003</v>
@@ -7545,7 +7528,7 @@
         <v>0.91020000000000001</v>
       </c>
       <c r="F242">
-        <v>71.405000000000001</v>
+        <v>71.407499999999999</v>
       </c>
       <c r="G242">
         <v>0.82221</v>
@@ -7574,7 +7557,7 @@
         <v>0.91754999999999998</v>
       </c>
       <c r="F243">
-        <v>70.867500000000007</v>
+        <v>71.067499999999995</v>
       </c>
       <c r="G243">
         <v>0.81345999999999996</v>
@@ -7603,7 +7586,7 @@
         <v>0.89673000000000003</v>
       </c>
       <c r="F244">
-        <v>70.927509999999998</v>
+        <v>70.818700000000007</v>
       </c>
       <c r="G244">
         <v>0.77276999999999996</v>
